--- a/proyecto 2parcial.py/Buñuelos colombianos.xlsx
+++ b/proyecto 2parcial.py/Buñuelos colombianos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALA8-M24\Documents\GitHub\Algoritmos\proyecto 2parcial.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C25AEA6-D1A7-4EB8-8ACC-70F35DA43B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C95B2B-B480-4F0C-BAC7-22D5515EE115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{659B1D14-69C1-44D0-8C62-60AC9E4CCBC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{659B1D14-69C1-44D0-8C62-60AC9E4CCBC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alumnos" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Justificante" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="863">
   <si>
     <t>Carla</t>
   </si>
@@ -2491,63 +2492,33 @@
     <t>636-228-8209</t>
   </si>
   <si>
-    <t>Grynde Hayman</t>
-  </si>
-  <si>
     <t>Calle 30, Reforma, 31520</t>
   </si>
   <si>
-    <t>Tux Olgera Norloc</t>
-  </si>
-  <si>
     <t>Calle 32, Ampliacion Reforma, 31900</t>
   </si>
   <si>
-    <t>Sopa do Macaqunho Marquz</t>
-  </si>
-  <si>
     <t>Calle 33, Francisco Villa, 31023</t>
   </si>
   <si>
-    <t xml:space="preserve">Arkady Igor Uputnik </t>
-  </si>
-  <si>
     <t>Calle 20, Reforma, 31420</t>
   </si>
   <si>
-    <t>Kenecro Hayman</t>
-  </si>
-  <si>
     <t>Calle 37, Reforma, 31840</t>
   </si>
   <si>
-    <t>Noble Dragon Tectonico</t>
-  </si>
-  <si>
     <t>Calle 36, Reforma, 31210</t>
   </si>
   <si>
-    <t>Primerion Unimate</t>
-  </si>
-  <si>
     <t>Calle 37, Francisco Villa, 31083</t>
   </si>
   <si>
-    <t>Tizoc de Xicomamatl</t>
-  </si>
-  <si>
     <t>Miguel Hidalgo, Independecia, 31092</t>
   </si>
   <si>
-    <t>Pirata Gato Panza</t>
-  </si>
-  <si>
     <t>Libertad, Independencia, 31500</t>
   </si>
   <si>
-    <t>Geometry Roblox Fire</t>
-  </si>
-  <si>
     <t>Francisco Javier Mina, Progreso, 31201</t>
   </si>
   <si>
@@ -2576,13 +2547,82 @@
   </si>
   <si>
     <t>2.1 km</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dragon Tectonico</t>
+  </si>
+  <si>
+    <t>Primerion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tizoc </t>
+  </si>
+  <si>
+    <t>de Xicomamatl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirata </t>
+  </si>
+  <si>
+    <t>Gato Panza</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roblox Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenecro </t>
+  </si>
+  <si>
+    <t>Hayman</t>
+  </si>
+  <si>
+    <t>Arkady</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Igor Uputnik </t>
+  </si>
+  <si>
+    <t>Sopa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> do Macaqunho Marquz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tux </t>
+  </si>
+  <si>
+    <t>Olgera Norloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grynde </t>
+  </si>
+  <si>
+    <t>Cento De Bachilletaro Teconológico</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Industrial y de servicios NO. 117</t>
+  </si>
+  <si>
+    <t>JUSTIFICANTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2706,6 +2746,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2806,7 +2854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2912,6 +2960,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -3537,6 +3589,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-623B-4246-A293-9A3449371C23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3554,6 +3611,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-623B-4246-A293-9A3449371C23}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -3601,31 +3663,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -4844,6 +4906,10 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="22" fmlaLink="$A$1" fmlaRange="Alumnos!$B1:$C$270" noThreeD="1" sel="255" val="250"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4920,6 +4986,69 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="List Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5220,10 +5349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2A40C1-74BC-410F-9CC4-378DA3A21E7A}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I270"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView topLeftCell="A251" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5233,6 +5363,7 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="94" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7581,7 +7712,7 @@
         <v>533</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="G101" s="30">
         <v>6251788901</v>
@@ -7604,7 +7735,7 @@
         <v>537</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G102" s="30">
         <v>6251469807</v>
@@ -7627,7 +7758,7 @@
         <v>540</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="G103" s="30">
         <v>6251475406</v>
@@ -7650,7 +7781,7 @@
         <v>51</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="G104" s="30">
         <v>6251261320</v>
@@ -7673,7 +7804,7 @@
         <v>545</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="G105" s="30">
         <v>6251211385</v>
@@ -7696,7 +7827,7 @@
         <v>56</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="G106" s="30">
         <v>6253660789</v>
@@ -7719,7 +7850,7 @@
         <v>550</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="G107" s="30">
         <v>6251341677</v>
@@ -7742,7 +7873,7 @@
         <v>553</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G108" s="30">
         <v>6256785409</v>
@@ -7765,7 +7896,7 @@
         <v>556</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="G109" s="30">
         <v>6257770809</v>
@@ -7788,7 +7919,7 @@
         <v>51</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="G110" s="30">
         <v>6256781233</v>
@@ -11246,18 +11377,21 @@
         <v>24117030341</v>
       </c>
       <c r="B261" t="s">
-        <v>821</v>
-      </c>
-      <c r="C261" s="50" t="s">
-        <v>822</v>
+        <v>858</v>
+      </c>
+      <c r="C261" t="s">
+        <v>851</v>
       </c>
       <c r="D261" s="50">
         <v>39946</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="50" t="s">
+        <v>821</v>
+      </c>
+      <c r="F261">
         <v>3.1</v>
       </c>
-      <c r="F261">
+      <c r="G261">
         <v>6255433467</v>
       </c>
     </row>
@@ -11266,18 +11400,21 @@
         <v>24117030342</v>
       </c>
       <c r="B262" t="s">
-        <v>823</v>
-      </c>
-      <c r="C262" s="50" t="s">
-        <v>824</v>
+        <v>856</v>
+      </c>
+      <c r="C262" t="s">
+        <v>857</v>
       </c>
       <c r="D262" s="50">
         <v>39886</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="50" t="s">
+        <v>822</v>
+      </c>
+      <c r="F262">
         <v>3.6</v>
       </c>
-      <c r="F262">
+      <c r="G262">
         <v>6251095454</v>
       </c>
     </row>
@@ -11286,18 +11423,21 @@
         <v>24117030343</v>
       </c>
       <c r="B263" t="s">
-        <v>825</v>
-      </c>
-      <c r="C263" s="50" t="s">
-        <v>826</v>
+        <v>854</v>
+      </c>
+      <c r="C263" t="s">
+        <v>855</v>
       </c>
       <c r="D263" s="50">
         <v>39828</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="50" t="s">
+        <v>823</v>
+      </c>
+      <c r="F263">
         <v>5.4</v>
       </c>
-      <c r="F263">
+      <c r="G263">
         <v>6141095463</v>
       </c>
     </row>
@@ -11306,18 +11446,21 @@
         <v>24117030344</v>
       </c>
       <c r="B264" t="s">
-        <v>827</v>
-      </c>
-      <c r="C264" s="50" t="s">
-        <v>828</v>
+        <v>852</v>
+      </c>
+      <c r="C264" t="s">
+        <v>853</v>
       </c>
       <c r="D264" s="50">
         <v>40072</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="50" t="s">
+        <v>824</v>
+      </c>
+      <c r="F264">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F264">
+      <c r="G264">
         <v>6251295463</v>
       </c>
     </row>
@@ -11326,18 +11469,21 @@
         <v>24117030345</v>
       </c>
       <c r="B265" t="s">
-        <v>829</v>
-      </c>
-      <c r="C265" s="50" t="s">
-        <v>830</v>
+        <v>850</v>
+      </c>
+      <c r="C265" t="s">
+        <v>851</v>
       </c>
       <c r="D265" s="50">
         <v>40103</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="50" t="s">
+        <v>825</v>
+      </c>
+      <c r="F265">
         <v>7.3</v>
       </c>
-      <c r="F265">
+      <c r="G265">
         <v>6251683559</v>
       </c>
     </row>
@@ -11346,18 +11492,21 @@
         <v>24117030346</v>
       </c>
       <c r="B266" t="s">
-        <v>831</v>
-      </c>
-      <c r="C266" s="50" t="s">
-        <v>832</v>
+        <v>840</v>
+      </c>
+      <c r="C266" t="s">
+        <v>841</v>
       </c>
       <c r="D266" s="50">
         <v>40165</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="50" t="s">
+        <v>826</v>
+      </c>
+      <c r="F266">
         <v>1.4</v>
       </c>
-      <c r="F266">
+      <c r="G266">
         <v>6251895468</v>
       </c>
     </row>
@@ -11366,18 +11515,21 @@
         <v>24117030347</v>
       </c>
       <c r="B267" t="s">
-        <v>833</v>
-      </c>
-      <c r="C267" s="50" t="s">
-        <v>834</v>
+        <v>842</v>
+      </c>
+      <c r="C267" t="s">
+        <v>843</v>
       </c>
       <c r="D267" s="50">
         <v>39832</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="50" t="s">
+        <v>827</v>
+      </c>
+      <c r="F267">
         <v>6.9</v>
       </c>
-      <c r="F267">
+      <c r="G267">
         <v>6251078666</v>
       </c>
     </row>
@@ -11386,18 +11538,21 @@
         <v>24117030348</v>
       </c>
       <c r="B268" t="s">
-        <v>835</v>
-      </c>
-      <c r="C268" s="50" t="s">
-        <v>836</v>
+        <v>844</v>
+      </c>
+      <c r="C268" t="s">
+        <v>845</v>
       </c>
       <c r="D268" s="50">
         <v>39923</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="50" t="s">
+        <v>828</v>
+      </c>
+      <c r="F268">
         <v>8</v>
       </c>
-      <c r="F268">
+      <c r="G268">
         <v>6251095463</v>
       </c>
     </row>
@@ -11406,18 +11561,21 @@
         <v>24117030349</v>
       </c>
       <c r="B269" t="s">
-        <v>837</v>
-      </c>
-      <c r="C269" s="50" t="s">
-        <v>838</v>
+        <v>846</v>
+      </c>
+      <c r="C269" t="s">
+        <v>847</v>
       </c>
       <c r="D269" s="50">
         <v>40138</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="50" t="s">
+        <v>829</v>
+      </c>
+      <c r="F269">
         <v>5</v>
       </c>
-      <c r="F269">
+      <c r="G269">
         <v>6255495460</v>
       </c>
     </row>
@@ -11426,18 +11584,21 @@
         <v>24117030350</v>
       </c>
       <c r="B270" t="s">
-        <v>839</v>
-      </c>
-      <c r="C270" s="50" t="s">
-        <v>840</v>
+        <v>848</v>
+      </c>
+      <c r="C270" t="s">
+        <v>849</v>
       </c>
       <c r="D270" s="50">
         <v>40139</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="50" t="s">
+        <v>830</v>
+      </c>
+      <c r="F270">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F270">
+      <c r="G270">
         <v>6254536317</v>
       </c>
     </row>
@@ -11448,10 +11609,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAECAC0-E2EF-4C6C-A868-CD46860FA045}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:C371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11462,7 +11624,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D171)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D171)/365)</f>
         <v>15</v>
       </c>
       <c r="B1" t="s">
@@ -11474,7 +11636,7 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D172)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D172)/365)</f>
         <v>16</v>
       </c>
       <c r="B2">
@@ -11487,7 +11649,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D173)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D173)/365)</f>
         <v>15</v>
       </c>
       <c r="B3">
@@ -11500,7 +11662,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D174)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D174)/365)</f>
         <v>14</v>
       </c>
       <c r="B4">
@@ -11513,7 +11675,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D175)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D175)/365)</f>
         <v>15</v>
       </c>
       <c r="B5">
@@ -11526,7 +11688,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D176)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D176)/365)</f>
         <v>17</v>
       </c>
       <c r="B6">
@@ -11539,7 +11701,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D177)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D177)/365)</f>
         <v>15</v>
       </c>
       <c r="B7">
@@ -11552,7 +11714,7 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D178)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D178)/365)</f>
         <v>18</v>
       </c>
       <c r="B8">
@@ -11565,7 +11727,7 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D179)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D179)/365)</f>
         <v>15</v>
       </c>
       <c r="B9">
@@ -11578,13 +11740,13 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D180)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D180)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D181)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D181)/365)</f>
         <v>16</v>
       </c>
       <c r="B11" t="s">
@@ -11596,1625 +11758,1625 @@
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D182)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D182)/365)</f>
         <v>16</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;2",Hoja1!F:F,"&gt;0.9")</f>
-        <v>35</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;2",Alumnos!F:F,"&gt;0.9")</f>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D183)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D183)/365)</f>
         <v>16</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;3",Hoja1!F:F,"&gt;1.9")</f>
-        <v>38</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;3",Alumnos!F:F,"&gt;1.9")</f>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D184)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D184)/365)</f>
         <v>16</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;4",Hoja1!F:F,"&gt;2.9")</f>
-        <v>19</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;4",Alumnos!F:F,"&gt;2.9")</f>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D185)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D185)/365)</f>
         <v>16</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;5",Hoja1!F:F,"&gt;3.9")</f>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;5",Alumnos!F:F,"&gt;3.9")</f>
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D186)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D186)/365)</f>
         <v>16</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;6",Hoja1!F:F,"&gt;4.9")</f>
-        <v>35</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;6",Alumnos!F:F,"&gt;4.9")</f>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D187)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D187)/365)</f>
         <v>16</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;7",Hoja1!F:F,"&gt;5.9")</f>
-        <v>17</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;7",Alumnos!F:F,"&gt;5.9")</f>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D188)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D188)/365)</f>
         <v>16</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;8",Hoja1!F:F,"&gt;6.9")</f>
-        <v>8</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;8",Alumnos!F:F,"&gt;6.9")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D189)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D189)/365)</f>
         <v>16</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
       <c r="C19">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;9",Hoja1!F:F,"&gt;7.9")</f>
-        <v>4</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;9",Alumnos!F:F,"&gt;7.9")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D190)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D190)/365)</f>
         <v>16</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
       <c r="C20">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;10",Hoja1!F:F,"&gt;8.9")</f>
-        <v>1</v>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;10",Alumnos!F:F,"&gt;8.9")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D21)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D21)/365)</f>
         <v>16</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <f>COUNTIFS(Hoja1!F:F,"&lt;11",Hoja1!F:F,"&gt;9.9")</f>
+        <f>COUNTIFS(Alumnos!F:F,"&lt;11",Alumnos!F:F,"&gt;9.9")</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D22)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D22)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D23)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D23)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D24)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D24)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D25)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D25)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D26)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D26)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D27)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D27)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D28)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D28)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D29)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D29)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D30)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D30)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D31)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D31)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D32)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D32)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D33)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D33)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D34)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D34)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D35)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D35)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D36)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D36)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D37)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D37)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D38)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D38)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D39)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D39)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D40)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D40)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D41)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D41)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D42)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D42)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D43)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D43)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D44)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D44)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D45)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D45)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D46)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D46)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D47)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D47)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D48)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D48)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D49)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D49)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D50)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D50)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D51)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D51)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D52)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D52)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D53)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D53)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D54)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D54)/365)</f>
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D55)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D55)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D56)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D56)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D57)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D57)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D58)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D58)/365)</f>
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D59)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D59)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D60)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D60)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D61)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D61)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D62)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D62)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D63)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D63)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D64)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D64)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D65)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D65)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D66)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D66)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D67)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D67)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D68)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D68)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D69)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D69)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D70)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D70)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D71)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D71)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D72)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D72)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D73)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D73)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D74)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D74)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D75)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D75)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D76)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D76)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D77)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D77)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D78)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D78)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D79)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D79)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D80)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D80)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D81)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D81)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D82)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D82)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D83)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D83)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D84)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D84)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D85)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D85)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D86)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D86)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D87)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D87)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D88)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D88)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D89)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D89)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D90)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D90)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D91)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D91)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D92)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D92)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D93)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D93)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D94)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D94)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D95)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D95)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D96)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D96)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D97)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D97)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D98)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D98)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D99)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D99)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D100)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D100)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D101)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D101)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D102)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D102)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D103)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D103)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D104)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D104)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D105)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D105)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D106)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D106)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D107)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D107)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D108)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D108)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D109)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D109)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D110)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D110)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D111)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D111)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D112)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D112)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D113)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D113)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D114)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D114)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D115)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D115)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D116)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D116)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D117)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D117)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D118)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D118)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D119)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D119)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D120)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D120)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D121)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D121)/365)</f>
         <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D122)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D122)/365)</f>
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D123)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D123)/365)</f>
         <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D124)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D124)/365)</f>
         <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D125)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D125)/365)</f>
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D126)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D126)/365)</f>
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D127)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D127)/365)</f>
         <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D128)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D128)/365)</f>
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D129)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D129)/365)</f>
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D130)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D130)/365)</f>
         <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D131)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D131)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D132)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D132)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D133)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D133)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D134)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D134)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D135)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D135)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D136)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D136)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D137)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D137)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D138)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D138)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D139)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D139)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D140)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D140)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D141)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D141)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D142)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D142)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D143)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D143)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D144)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D144)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D145)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D145)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D146)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D146)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D147)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D147)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D148)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D148)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D149)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D149)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D150)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D150)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D151)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D151)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D152)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D152)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D153)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D153)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D154)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D154)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D155)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D155)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D156)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D156)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D157)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D157)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D158)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D158)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D159)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D159)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D160)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D160)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D161)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D161)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D162)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D162)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D163)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D163)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D164)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D164)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D165)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D165)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D166)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D166)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D167)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D167)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D168)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D168)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D169)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D169)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D170)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D170)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D171)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D171)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D172)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D172)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D173)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D173)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D174)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D174)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D175)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D175)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D176)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D176)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D177)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D177)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D178)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D178)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D179)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D179)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D180)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D180)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D181)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D181)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D182)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D182)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D183)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D183)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D184)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D184)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D185)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D185)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D186)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D186)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D187)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D187)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D188)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D188)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D189)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D189)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D190)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D190)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D191)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D191)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D192)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D192)/365)</f>
         <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D193)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D193)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D194)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D194)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D195)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D195)/365)</f>
         <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D196)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D196)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D197)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D197)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D198)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D198)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D199)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D199)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D200)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D200)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D201)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D201)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D202)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D202)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D203)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D203)/365)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D204)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D204)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D205)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D205)/365)</f>
         <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D206)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D206)/365)</f>
         <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D207)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D207)/365)</f>
         <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D208)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D208)/365)</f>
         <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="e">
-        <f ca="1">INT((TODAY()-Hoja1!D209)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D209)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D210)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D210)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D211)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D211)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D212)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D212)/365)</f>
         <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D213)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D213)/365)</f>
         <v>44</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D214)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D214)/365)</f>
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D215)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D215)/365)</f>
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D216)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D216)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D217)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D217)/365)</f>
         <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D218)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D218)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D219)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D219)/365)</f>
         <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D220)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D220)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D221)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D221)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D222)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D222)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D223)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D223)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D224)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D224)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D225)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D225)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D226)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D226)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D227)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D227)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D228)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D228)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D229)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D229)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D230)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D230)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D231)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D231)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D232)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D232)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D233)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D233)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D234)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D234)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D235)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D235)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D236)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D236)/365)</f>
         <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D237)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D237)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D238)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D238)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D239)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D239)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D240)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D240)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D241)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D241)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D242)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D242)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D243)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D243)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D244)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D244)/365)</f>
         <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D245)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D245)/365)</f>
         <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D246)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D246)/365)</f>
         <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D247)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D247)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D248)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D248)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D249)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D249)/365)</f>
         <v>21</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D250)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D250)/365)</f>
         <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D251)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D251)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D252)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D252)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D253)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D253)/365)</f>
         <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D254)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D254)/365)</f>
         <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D255)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D255)/365)</f>
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D256)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D256)/365)</f>
         <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D257)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D257)/365)</f>
         <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D258)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D258)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D259)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D259)/365)</f>
         <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D260)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D260)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D261)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D261)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D262)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D262)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D263)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D263)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D264)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D264)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D265)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D265)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D266)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D266)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D267)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D267)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D268)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D268)/365)</f>
         <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D269)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D269)/365)</f>
         <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <f ca="1">INT((TODAY()-Hoja1!D270)/365)</f>
+        <f ca="1">INT((TODAY()-Alumnos!D270)/365)</f>
         <v>14</v>
       </c>
     </row>
@@ -13525,4 +13687,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6E7CE-9BD7-40F2-92F8-867A16EE4EFD}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="51" t="s">
+        <v>859</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="52" t="s">
+        <v>860</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId3" name="List Box 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/proyecto 2parcial.py/Buñuelos colombianos.xlsx
+++ b/proyecto 2parcial.py/Buñuelos colombianos.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALA8-M24\Documents\GitHub\Algoritmos\proyecto 2parcial.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C95B2B-B480-4F0C-BAC7-22D5515EE115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68366873-05E3-4DFD-BDDA-6364AED75D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{659B1D14-69C1-44D0-8C62-60AC9E4CCBC2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="882">
   <si>
     <t>Carla</t>
   </si>
@@ -2609,20 +2609,77 @@
     <t>Cento De Bachilletaro Teconológico</t>
   </si>
   <si>
-    <t>Educación</t>
-  </si>
-  <si>
     <t>Industrial y de servicios NO. 117</t>
   </si>
   <si>
-    <t>JUSTIFICANTES</t>
+    <t>JUSTIFICANTE</t>
+  </si>
+  <si>
+    <t>PERSONAL DOCENTE</t>
+  </si>
+  <si>
+    <t>DEL GRUPO</t>
+  </si>
+  <si>
+    <t>PRESENTE:</t>
+  </si>
+  <si>
+    <t>FECHA DE EXPEDICIÓN:</t>
+  </si>
+  <si>
+    <t>Por este medio solicito a Ustedes se justifiquen las faltas al alumno(a):</t>
+  </si>
+  <si>
+    <t>Motivo de la ausencia:</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Salir de la ciudad</t>
+  </si>
+  <si>
+    <t>Familiares</t>
+  </si>
+  <si>
+    <t>Fecha y hora</t>
+  </si>
+  <si>
+    <t>Días:</t>
+  </si>
+  <si>
+    <t>De:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: </t>
+  </si>
+  <si>
+    <t>Otro:</t>
+  </si>
+  <si>
+    <t>ATENTAMENTE</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE SERVICIOS ESCOLARES</t>
+  </si>
+  <si>
+    <t>PADRE O TUTOR</t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t>shdkafkskjgdsjg</t>
+  </si>
+  <si>
+    <t>Entrenamiento o participación en eventos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2747,8 +2804,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2798,7 +2868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2849,12 +2919,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2963,7 +3113,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -4907,7 +5114,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="22" fmlaLink="$A$1" fmlaRange="Alumnos!$B1:$C$270" noThreeD="1" sel="255" val="250"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$A$1" fmlaRange="Alumnos!$B$1:$C$270" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaRange="$A$15:$A$18" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4995,26 +5206,145 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>190499</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="List Box 1" hidden="1">
+            <xdr:cNvPr id="3074" name="Drop Down 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
+                  <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10732</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Roaring Tiger Png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E11246-8BD8-81CD-DFE1-83AF1F9E254F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5773357" y="218432"/>
+          <a:ext cx="722692" cy="600718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3082" name="Drop Down 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5352,11 +5682,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I270"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -5366,9 +5696,9 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="13">
-        <v>24117030001</v>
+        <v>24117010001</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>141</v>
@@ -5389,9 +5719,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="13">
-        <v>24117030002</v>
+        <v>24117020002</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>145</v>
@@ -5412,7 +5742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="13">
         <v>24117030003</v>
       </c>
@@ -5435,9 +5765,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="13">
-        <v>24117030004</v>
+        <v>24117040004</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>153</v>
@@ -5458,9 +5788,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="13">
-        <v>24117030005</v>
+        <v>24117050005</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>157</v>
@@ -5481,9 +5811,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
-        <v>24117030006</v>
+        <v>24117060006</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>161</v>
@@ -5504,9 +5834,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="13">
-        <v>24117030007</v>
+        <v>24117070007</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>165</v>
@@ -5527,7 +5857,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="13">
         <v>24117030008</v>
       </c>
@@ -5550,9 +5880,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="13">
-        <v>24117030009</v>
+        <v>24117080009</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
@@ -5573,9 +5903,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="13">
-        <v>24117030010</v>
+        <v>24117090010</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>8</v>
@@ -5596,9 +5926,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="7">
-        <v>24117030011</v>
+        <v>24117100011</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>62</v>
@@ -5619,9 +5949,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="7">
-        <v>24117030012</v>
+        <v>24117110012</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>66</v>
@@ -5642,9 +5972,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="7">
-        <v>24117030013</v>
+        <v>24117120013</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>70</v>
@@ -5665,7 +5995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7">
         <v>24117030014</v>
       </c>
@@ -5688,7 +6018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="7">
         <v>24117030015</v>
       </c>
@@ -5711,7 +6041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="7">
         <v>24117030016</v>
       </c>
@@ -5734,7 +6064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="7">
         <v>24117030017</v>
       </c>
@@ -5757,7 +6087,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="7">
         <v>24117030018</v>
       </c>
@@ -5780,7 +6110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>24117030019</v>
       </c>
@@ -5803,7 +6133,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="7">
         <v>24117030020</v>
       </c>
@@ -5826,7 +6156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="9">
         <v>24117030021</v>
       </c>
@@ -5849,7 +6179,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="9">
         <v>24117030022</v>
       </c>
@@ -5872,7 +6202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="9">
         <v>24117030023</v>
       </c>
@@ -5895,7 +6225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="9">
         <v>24117030024</v>
       </c>
@@ -5918,7 +6248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="9">
         <v>24117030025</v>
       </c>
@@ -5941,7 +6271,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="9">
         <v>24117030026</v>
       </c>
@@ -5964,7 +6294,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>24117030027</v>
       </c>
@@ -5987,7 +6317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="9">
         <v>24117030028</v>
       </c>
@@ -6010,7 +6340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>24117030029</v>
       </c>
@@ -6033,7 +6363,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>24117030030</v>
       </c>
@@ -6056,7 +6386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="18">
         <v>24117030031</v>
       </c>
@@ -6079,7 +6409,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="18">
         <f>A31+1</f>
         <v>24117030032</v>
@@ -6103,7 +6433,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="18">
         <f t="shared" ref="A33:A40" si="0">A32+1</f>
         <v>24117030033</v>
@@ -6127,7 +6457,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>24117030034</v>
@@ -6151,7 +6481,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>24117030035</v>
@@ -6175,7 +6505,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>24117030036</v>
@@ -6199,7 +6529,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="18">
         <f t="shared" si="0"/>
         <v>24117030037</v>
@@ -6223,7 +6553,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="18">
         <f t="shared" si="0"/>
         <v>24117030038</v>
@@ -6247,7 +6577,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="18">
         <f t="shared" si="0"/>
         <v>24117030039</v>
@@ -6271,7 +6601,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="18">
         <f t="shared" si="0"/>
         <v>24117030040</v>
@@ -6295,7 +6625,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="21">
         <v>24117030041</v>
       </c>
@@ -6318,7 +6648,7 @@
         <v>6257889545</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="21">
         <v>24117030042</v>
       </c>
@@ -6341,7 +6671,7 @@
         <v>6251599687</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="21">
         <v>24117030043</v>
       </c>
@@ -6364,7 +6694,7 @@
         <v>6354569678</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="21">
         <v>24117030044</v>
       </c>
@@ -6387,7 +6717,7 @@
         <v>6251349658</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="21">
         <v>24117030045</v>
       </c>
@@ -6410,7 +6740,7 @@
         <v>6254896396</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="21">
         <v>24117030046</v>
       </c>
@@ -6433,7 +6763,7 @@
         <v>6521300091</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="21">
         <v>24117030047</v>
       </c>
@@ -6456,7 +6786,7 @@
         <v>6256661122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="21">
         <v>24117030048</v>
       </c>
@@ -6479,7 +6809,7 @@
         <v>6251898565</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="21">
         <v>24117030049</v>
       </c>
@@ -6502,7 +6832,7 @@
         <v>6351583594</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="21">
         <v>24117030050</v>
       </c>
@@ -6525,7 +6855,7 @@
         <v>6251224499</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="23">
         <v>24117030051</v>
       </c>
@@ -6550,7 +6880,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="23">
         <v>24117030052</v>
       </c>
@@ -6575,7 +6905,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="23">
         <v>24117030053</v>
       </c>
@@ -6600,7 +6930,7 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="23">
         <v>24117030054</v>
       </c>
@@ -6625,7 +6955,7 @@
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="23">
         <v>24117030055</v>
       </c>
@@ -6650,7 +6980,7 @@
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="23">
         <v>24117030056</v>
       </c>
@@ -6675,7 +7005,7 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="23">
         <v>24117030057</v>
       </c>
@@ -6700,7 +7030,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="23">
         <v>24117030058</v>
       </c>
@@ -6725,7 +7055,7 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="23">
         <v>24117030059</v>
       </c>
@@ -6750,7 +7080,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="23">
         <v>24117030060</v>
       </c>
@@ -6775,7 +7105,7 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>2411703061</v>
       </c>
@@ -6798,7 +7128,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>2411703062</v>
       </c>
@@ -6821,7 +7151,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>2411703063</v>
       </c>
@@ -6844,7 +7174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>2411703064</v>
       </c>
@@ -6867,7 +7197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2411703065</v>
       </c>
@@ -6890,7 +7220,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2411703066</v>
       </c>
@@ -6913,7 +7243,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>2411703067</v>
       </c>
@@ -6936,7 +7266,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>2411703068</v>
       </c>
@@ -6959,7 +7289,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>2411703069</v>
       </c>
@@ -6982,7 +7312,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2411703070</v>
       </c>
@@ -7005,7 +7335,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>24117030071</v>
       </c>
@@ -7028,7 +7358,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>24117030072</v>
       </c>
@@ -7051,7 +7381,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>24117030073</v>
       </c>
@@ -7074,7 +7404,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>24117030074</v>
       </c>
@@ -7097,7 +7427,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>24117030075</v>
       </c>
@@ -7120,7 +7450,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>24117030076</v>
       </c>
@@ -7143,7 +7473,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>24117030077</v>
       </c>
@@ -7166,7 +7496,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>24117030078</v>
       </c>
@@ -7189,7 +7519,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>24117030079</v>
       </c>
@@ -7212,7 +7542,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>24117030080</v>
       </c>
@@ -7235,7 +7565,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>241170081</v>
       </c>
@@ -7258,7 +7588,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>241170081</v>
       </c>
@@ -7281,7 +7611,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>241170083</v>
       </c>
@@ -7304,7 +7634,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>241170084</v>
       </c>
@@ -7327,7 +7657,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>241170085</v>
       </c>
@@ -7350,7 +7680,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>241170086</v>
       </c>
@@ -7373,7 +7703,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>241170087</v>
       </c>
@@ -7396,7 +7726,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>241170088</v>
       </c>
@@ -7419,7 +7749,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>241170089</v>
       </c>
@@ -7442,7 +7772,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>241170090</v>
       </c>
@@ -7465,7 +7795,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="26">
         <v>2411703091</v>
       </c>
@@ -7488,7 +7818,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="26">
         <v>2411703092</v>
       </c>
@@ -7511,7 +7841,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="26">
         <v>2411703093</v>
       </c>
@@ -7534,7 +7864,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="26">
         <v>2411703094</v>
       </c>
@@ -7557,7 +7887,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="26">
         <v>2411703095</v>
       </c>
@@ -7580,7 +7910,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="26">
         <v>2411703096</v>
       </c>
@@ -7603,7 +7933,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="26">
         <v>2411703097</v>
       </c>
@@ -7626,7 +7956,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="26">
         <v>2411703098</v>
       </c>
@@ -7649,7 +7979,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="26">
         <v>2411703099</v>
       </c>
@@ -7672,7 +8002,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" thickBot="1">
       <c r="A100" s="26">
         <v>2411703100</v>
       </c>
@@ -7695,7 +8025,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A101" s="30">
         <v>24117030101</v>
       </c>
@@ -7718,7 +8048,7 @@
         <v>6251788901</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A102" s="30">
         <v>24117030102</v>
       </c>
@@ -7741,7 +8071,7 @@
         <v>6251469807</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A103" s="30">
         <v>24117030103</v>
       </c>
@@ -7764,7 +8094,7 @@
         <v>6251475406</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A104" s="30">
         <v>24117010104</v>
       </c>
@@ -7787,7 +8117,7 @@
         <v>6251261320</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A105" s="30">
         <v>24117030105</v>
       </c>
@@ -7810,7 +8140,7 @@
         <v>6251211385</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A106" s="30">
         <v>24117030106</v>
       </c>
@@ -7833,7 +8163,7 @@
         <v>6253660789</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A107" s="30">
         <v>24117030107</v>
       </c>
@@ -7856,7 +8186,7 @@
         <v>6251341677</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A108" s="30">
         <v>24117030108</v>
       </c>
@@ -7879,7 +8209,7 @@
         <v>6256785409</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A109" s="30">
         <v>24117030109</v>
       </c>
@@ -7902,7 +8232,7 @@
         <v>6257770809</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A110" s="30">
         <v>241170300110</v>
       </c>
@@ -7925,7 +8255,7 @@
         <v>6256781233</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15.75" thickTop="1">
       <c r="A111" s="28">
         <v>24177030111</v>
       </c>
@@ -7948,7 +8278,7 @@
         <v>6251823695</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="28">
         <v>24177030112</v>
       </c>
@@ -7971,7 +8301,7 @@
         <v>6258425897</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="28">
         <v>24177030113</v>
       </c>
@@ -7994,7 +8324,7 @@
         <v>6259836521</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="28">
         <v>24177030114</v>
       </c>
@@ -8017,7 +8347,7 @@
         <v>6255469832</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="28">
         <v>24177030115</v>
       </c>
@@ -8040,9 +8370,9 @@
         <v>6259872531</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="28">
-        <v>24177030116</v>
+        <v>24117030116</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>458</v>
@@ -8063,7 +8393,7 @@
         <v>6257890191</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="28">
         <v>24177030117</v>
       </c>
@@ -8086,7 +8416,7 @@
         <v>6251811665</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="28">
         <v>24177030118</v>
       </c>
@@ -8109,7 +8439,7 @@
         <v>6251473216</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="28">
         <v>24177030119</v>
       </c>
@@ -8132,7 +8462,7 @@
         <v>6259870025</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="28">
         <v>241770300120</v>
       </c>
@@ -8155,7 +8485,7 @@
         <v>6253120099</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>131</v>
       </c>
@@ -8178,7 +8508,7 @@
         <v>6251504558</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>132</v>
       </c>
@@ -8201,7 +8531,7 @@
         <v>6251170215</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>133</v>
       </c>
@@ -8224,7 +8554,7 @@
         <v>6251105469</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>134</v>
       </c>
@@ -8247,7 +8577,7 @@
         <v>6251195502</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>135</v>
       </c>
@@ -8270,7 +8600,7 @@
         <v>6252064094</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>136</v>
       </c>
@@ -8293,7 +8623,7 @@
         <v>6251216239</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>137</v>
       </c>
@@ -8316,7 +8646,7 @@
         <v>6251112372</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>138</v>
       </c>
@@ -8339,7 +8669,7 @@
         <v>6251577684</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>139</v>
       </c>
@@ -8362,7 +8692,7 @@
         <v>6257655980</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>140</v>
       </c>
@@ -8385,7 +8715,7 @@
         <v>6251333862</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>24117010151</v>
       </c>
@@ -8408,7 +8738,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>24117020152</v>
       </c>
@@ -8431,7 +8761,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>24117030153</v>
       </c>
@@ -8454,7 +8784,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>24117040154</v>
       </c>
@@ -8477,7 +8807,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>24117050155</v>
       </c>
@@ -8500,7 +8830,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>24117060156</v>
       </c>
@@ -8523,7 +8853,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>24117020157</v>
       </c>
@@ -8546,7 +8876,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>24117040158</v>
       </c>
@@ -8569,7 +8899,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>24117020159</v>
       </c>
@@ -8592,7 +8922,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15.75" thickBot="1">
       <c r="A140">
         <v>2411780160</v>
       </c>
@@ -8615,7 +8945,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A141" s="30">
         <v>24117030161</v>
       </c>
@@ -8638,7 +8968,7 @@
         <v>6251788901</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A142" s="30">
         <v>24117030162</v>
       </c>
@@ -8661,7 +8991,7 @@
         <v>6251469807</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A143" s="30">
         <v>24117030163</v>
       </c>
@@ -8684,7 +9014,7 @@
         <v>6251475406</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A144" s="30">
         <v>24117010164</v>
       </c>
@@ -8707,7 +9037,7 @@
         <v>6251261320</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A145" s="30">
         <v>24117030165</v>
       </c>
@@ -8730,7 +9060,7 @@
         <v>6251211385</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A146" s="30">
         <v>24117030166</v>
       </c>
@@ -8753,7 +9083,7 @@
         <v>6253660789</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A147" s="30">
         <v>24117030167</v>
       </c>
@@ -8776,7 +9106,7 @@
         <v>6251341677</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A148" s="30">
         <v>24117030168</v>
       </c>
@@ -8799,7 +9129,7 @@
         <v>6256785409</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A149" s="30">
         <v>24117030169</v>
       </c>
@@ -8822,7 +9152,7 @@
         <v>6257770809</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A150" s="30">
         <v>24117030170</v>
       </c>
@@ -8845,7 +9175,7 @@
         <v>6256781233</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15.75" thickTop="1">
       <c r="A151">
         <v>23117030171</v>
       </c>
@@ -8868,7 +9198,7 @@
         <v>6251788901</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>23117030172</v>
       </c>
@@ -8891,7 +9221,7 @@
         <v>6251469807</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>23117030173</v>
       </c>
@@ -8914,7 +9244,7 @@
         <v>6251475406</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>23117030174</v>
       </c>
@@ -8937,7 +9267,7 @@
         <v>6251261320</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>23117030175</v>
       </c>
@@ -8960,7 +9290,7 @@
         <v>6251211385</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>23117030176</v>
       </c>
@@ -8983,7 +9313,7 @@
         <v>6253660789</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>23117030177</v>
       </c>
@@ -9006,7 +9336,7 @@
         <v>6251341677</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>23117030178</v>
       </c>
@@ -9029,7 +9359,7 @@
         <v>6256785409</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>23117030179</v>
       </c>
@@ -9052,7 +9382,7 @@
         <v>6257770809</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>23117030180</v>
       </c>
@@ -9075,7 +9405,7 @@
         <v>6256781233</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>24117030181</v>
       </c>
@@ -9098,7 +9428,7 @@
         <v>6257088501</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="32">
         <v>24117030182</v>
       </c>
@@ -9121,7 +9451,7 @@
         <v>6256467067</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="32">
         <v>24117030183</v>
       </c>
@@ -9144,7 +9474,7 @@
         <v>6256891453</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="32">
         <v>24117030184</v>
       </c>
@@ -9167,7 +9497,7 @@
         <v>6257241442</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>24117030185</v>
       </c>
@@ -9190,7 +9520,7 @@
         <v>6256650050</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>24117030186</v>
       </c>
@@ -9213,7 +9543,7 @@
         <v>6256701596</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>24117030187</v>
       </c>
@@ -9236,7 +9566,7 @@
         <v>6256583101</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>24117030188</v>
       </c>
@@ -9259,7 +9589,7 @@
         <v>6256820742</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>24117030189</v>
       </c>
@@ -9282,7 +9612,7 @@
         <v>6256386726</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>24117030190</v>
       </c>
@@ -9305,7 +9635,7 @@
         <v>6256834719</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="16.5">
       <c r="A171">
         <v>24117030191</v>
       </c>
@@ -9328,7 +9658,7 @@
         <v>6142234623</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>24117030192</v>
       </c>
@@ -9351,7 +9681,7 @@
         <v>6251209834</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>24117030193</v>
       </c>
@@ -9374,7 +9704,7 @@
         <v>6392222231</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>24117030194</v>
       </c>
@@ -9397,7 +9727,7 @@
         <v>6253330213</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>24117030195</v>
       </c>
@@ -9420,7 +9750,7 @@
         <v>6252834333</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>24117030196</v>
       </c>
@@ -9443,7 +9773,7 @@
         <v>6146259911</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>24117030197</v>
       </c>
@@ -9466,7 +9796,7 @@
         <v>6142327567</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>24117030198</v>
       </c>
@@ -9489,7 +9819,7 @@
         <v>6251932221</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>24117030199</v>
       </c>
@@ -9512,7 +9842,7 @@
         <v>6144782632</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="17.25">
       <c r="A180">
         <v>24117030200</v>
       </c>
@@ -9535,7 +9865,7 @@
         <v>6251111111</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="16.5">
       <c r="A181">
         <v>24117030201</v>
       </c>
@@ -9558,7 +9888,7 @@
         <v>6252222222</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="16.5">
       <c r="A182">
         <v>24117030202</v>
       </c>
@@ -9581,7 +9911,7 @@
         <v>6253333333</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="16.5">
       <c r="A183">
         <v>24117030203</v>
       </c>
@@ -9604,7 +9934,7 @@
         <v>6254444444</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="16.5">
       <c r="A184">
         <v>24117030204</v>
       </c>
@@ -9627,7 +9957,7 @@
         <v>6255555555</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="16.5">
       <c r="A185">
         <v>24117030205</v>
       </c>
@@ -9650,7 +9980,7 @@
         <v>6256666666</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="16.5">
       <c r="A186">
         <v>24117030206</v>
       </c>
@@ -9673,7 +10003,7 @@
         <v>6257777777</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="16.5">
       <c r="A187">
         <v>24117030207</v>
       </c>
@@ -9696,7 +10026,7 @@
         <v>6258888888</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="16.5">
       <c r="A188">
         <v>24117030208</v>
       </c>
@@ -9719,7 +10049,7 @@
         <v>6259999999</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="16.5">
       <c r="A189">
         <v>24117030209</v>
       </c>
@@ -9742,7 +10072,7 @@
         <v>6250000000</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="16.5">
       <c r="A190">
         <v>24117030210</v>
       </c>
@@ -9765,7 +10095,7 @@
         <v>6251111112</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>24117030221</v>
       </c>
@@ -9788,7 +10118,7 @@
         <v>6253776757</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="32">
         <v>24117030222</v>
       </c>
@@ -9811,7 +10141,7 @@
         <v>6258464973</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="32">
         <v>24117030223</v>
       </c>
@@ -9834,7 +10164,7 @@
         <v>6251974563</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="32">
         <v>24117030224</v>
       </c>
@@ -9857,7 +10187,7 @@
         <v>6251841854</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>24117030225</v>
       </c>
@@ -9880,7 +10210,7 @@
         <v>6256650050</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>24117030226</v>
       </c>
@@ -9903,7 +10233,7 @@
         <v>6256493876</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>24117030227</v>
       </c>
@@ -9926,7 +10256,7 @@
         <v>6253693101</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>24117030228</v>
       </c>
@@ -9949,7 +10279,7 @@
         <v>6256583691</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>24117030229</v>
       </c>
@@ -9972,7 +10302,7 @@
         <v>6256386726</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>24117030230</v>
       </c>
@@ -9995,7 +10325,7 @@
         <v>6258256795</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>24117030231</v>
       </c>
@@ -10015,7 +10345,7 @@
         <v>6253719642</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="32">
         <v>24117030232</v>
       </c>
@@ -10038,7 +10368,7 @@
         <v>6254821376</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="32">
         <v>24117030233</v>
       </c>
@@ -10061,7 +10391,7 @@
         <v>6253764981</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="32">
         <v>24117030234</v>
       </c>
@@ -10084,7 +10414,7 @@
         <v>6252547819</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>24117030235</v>
       </c>
@@ -10107,7 +10437,7 @@
         <v>6256832904</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>24117030236</v>
       </c>
@@ -10130,7 +10460,7 @@
         <v>6258396145</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>24117030237</v>
       </c>
@@ -10153,7 +10483,7 @@
         <v>6258396145</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>24117030238</v>
       </c>
@@ -10176,7 +10506,7 @@
         <v>6257401582</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>24117030239</v>
       </c>
@@ -10199,7 +10529,7 @@
         <v>6252178539</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>24117030240</v>
       </c>
@@ -10222,7 +10552,7 @@
         <v>6256047298</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>24117030241</v>
       </c>
@@ -10245,7 +10575,7 @@
         <v>6251592248</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>24117030242</v>
       </c>
@@ -10268,7 +10598,7 @@
         <v>6355894876</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>24117030243</v>
       </c>
@@ -10291,7 +10621,7 @@
         <v>6351999210</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>24117030244</v>
       </c>
@@ -10314,7 +10644,7 @@
         <v>6352458764</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>24117030245</v>
       </c>
@@ -10337,7 +10667,7 @@
         <v>6251453215</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>24117030246</v>
       </c>
@@ -10360,7 +10690,7 @@
         <v>6351092120</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>24117030247</v>
       </c>
@@ -10383,7 +10713,7 @@
         <v>6251601565</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>24117030248</v>
       </c>
@@ -10406,7 +10736,7 @@
         <v>6255898935</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>24117030249</v>
       </c>
@@ -10429,7 +10759,7 @@
         <v>6356543216</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>24117030250</v>
       </c>
@@ -10452,7 +10782,7 @@
         <v>6351067869</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="33">
         <v>23117030261</v>
       </c>
@@ -10475,7 +10805,7 @@
         <v>6258190348</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="33">
         <v>23117030262</v>
       </c>
@@ -10498,7 +10828,7 @@
         <v>6254721936</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="33">
         <v>23117030263</v>
       </c>
@@ -10521,7 +10851,7 @@
         <v>6251839427</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="33">
         <v>23117030264</v>
       </c>
@@ -10544,7 +10874,7 @@
         <v>6257462138</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="33">
         <v>23117030265</v>
       </c>
@@ -10567,7 +10897,7 @@
         <v>6253947582</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="33">
         <v>23117030266</v>
       </c>
@@ -10590,7 +10920,7 @@
         <v>6253947582</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="33">
         <v>23117030267</v>
       </c>
@@ -10613,7 +10943,7 @@
         <v>6256574839</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="33">
         <v>23117030268</v>
       </c>
@@ -10636,7 +10966,7 @@
         <v>6252149876</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="33">
         <v>23117030269</v>
       </c>
@@ -10659,7 +10989,7 @@
         <v>6258639421</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="33">
         <v>23117030270</v>
       </c>
@@ -10682,7 +11012,7 @@
         <v>6253512798</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="15.75">
       <c r="A231" s="38">
         <v>24117030301</v>
       </c>
@@ -10705,7 +11035,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="15.75">
       <c r="A232" s="38">
         <v>24117030302</v>
       </c>
@@ -10728,7 +11058,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75">
       <c r="A233" s="38">
         <v>24117030303</v>
       </c>
@@ -10751,7 +11081,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="15.75">
       <c r="A234" s="38">
         <v>24117030304</v>
       </c>
@@ -10774,7 +11104,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="15.75">
       <c r="A235" s="38">
         <v>24117030305</v>
       </c>
@@ -10797,7 +11127,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="15.75">
       <c r="A236" s="38">
         <v>24117030306</v>
       </c>
@@ -10820,7 +11150,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="15.75">
       <c r="A237" s="38">
         <v>24117030307</v>
       </c>
@@ -10843,7 +11173,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="15.75">
       <c r="A238" s="38">
         <v>24117030308</v>
       </c>
@@ -10866,7 +11196,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="15.75">
       <c r="A239" s="38">
         <v>24117030309</v>
       </c>
@@ -10889,7 +11219,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="15.75">
       <c r="A240" s="38">
         <v>24117030310</v>
       </c>
@@ -10912,7 +11242,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="21">
         <v>24117030311</v>
       </c>
@@ -10935,7 +11265,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="21">
         <v>24117030312</v>
       </c>
@@ -10958,7 +11288,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="21">
         <v>24117030313</v>
       </c>
@@ -10981,7 +11311,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="21">
         <v>24117030314</v>
       </c>
@@ -11004,7 +11334,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="21">
         <v>24117030315</v>
       </c>
@@ -11027,7 +11357,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="21">
         <v>24117030316</v>
       </c>
@@ -11050,7 +11380,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="21">
         <v>24117030317</v>
       </c>
@@ -11073,7 +11403,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="21">
         <v>24117030318</v>
       </c>
@@ -11096,7 +11426,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="21">
         <v>24117030319</v>
       </c>
@@ -11119,7 +11449,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="21">
         <v>24117030320</v>
       </c>
@@ -11142,7 +11472,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="21">
         <v>24117030321</v>
       </c>
@@ -11165,7 +11495,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="21">
         <v>24117030322</v>
       </c>
@@ -11188,7 +11518,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="21">
         <v>24117030323</v>
       </c>
@@ -11211,7 +11541,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="21">
         <v>24117030324</v>
       </c>
@@ -11234,7 +11564,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="21">
         <v>24117030325</v>
       </c>
@@ -11257,7 +11587,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="21">
         <v>24117030326</v>
       </c>
@@ -11280,7 +11610,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="21">
         <v>24117030327</v>
       </c>
@@ -11303,7 +11633,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="21">
         <v>24117030328</v>
       </c>
@@ -11326,7 +11656,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="21">
         <v>24117030329</v>
       </c>
@@ -11349,7 +11679,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="21">
         <v>24117030330</v>
       </c>
@@ -11372,7 +11702,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="49">
         <v>24117030341</v>
       </c>
@@ -11395,7 +11725,7 @@
         <v>6255433467</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="18">
         <v>24117030342</v>
       </c>
@@ -11418,7 +11748,7 @@
         <v>6251095454</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="18">
         <v>24117030343</v>
       </c>
@@ -11441,7 +11771,7 @@
         <v>6141095463</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="18">
         <v>24117030344</v>
       </c>
@@ -11464,7 +11794,7 @@
         <v>6251295463</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="18">
         <v>24117030345</v>
       </c>
@@ -11487,7 +11817,7 @@
         <v>6251683559</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="18">
         <v>24117030346</v>
       </c>
@@ -11510,7 +11840,7 @@
         <v>6251895468</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="18">
         <v>24117030347</v>
       </c>
@@ -11533,7 +11863,7 @@
         <v>6251078666</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="18">
         <v>24117030348</v>
       </c>
@@ -11556,7 +11886,7 @@
         <v>6251095463</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="18">
         <v>24117030349</v>
       </c>
@@ -11579,7 +11909,7 @@
         <v>6255495460</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="18">
         <v>24117030350</v>
       </c>
@@ -11613,16 +11943,16 @@
   <dimension ref="A1:C371"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D171)/365)</f>
         <v>15</v>
@@ -11634,7 +11964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D172)/365)</f>
         <v>16</v>
@@ -11647,7 +11977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D173)/365)</f>
         <v>15</v>
@@ -11660,7 +11990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D174)/365)</f>
         <v>14</v>
@@ -11673,7 +12003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D175)/365)</f>
         <v>15</v>
@@ -11686,7 +12016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D176)/365)</f>
         <v>17</v>
@@ -11699,7 +12029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D177)/365)</f>
         <v>15</v>
@@ -11712,7 +12042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D178)/365)</f>
         <v>18</v>
@@ -11725,7 +12055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D179)/365)</f>
         <v>15</v>
@@ -11738,13 +12068,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D180)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D181)/365)</f>
         <v>16</v>
@@ -11756,7 +12086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D182)/365)</f>
         <v>16</v>
@@ -11769,7 +12099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D183)/365)</f>
         <v>16</v>
@@ -11782,7 +12112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D184)/365)</f>
         <v>16</v>
@@ -11795,7 +12125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D185)/365)</f>
         <v>16</v>
@@ -11808,7 +12138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D186)/365)</f>
         <v>16</v>
@@ -11821,7 +12151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D187)/365)</f>
         <v>16</v>
@@ -11834,7 +12164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D188)/365)</f>
         <v>16</v>
@@ -11847,7 +12177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D189)/365)</f>
         <v>16</v>
@@ -11860,7 +12190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D190)/365)</f>
         <v>16</v>
@@ -11873,7 +12203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D21)/365)</f>
         <v>16</v>
@@ -11886,1801 +12216,1801 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D22)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D23)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D24)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16.5">
       <c r="A25" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D25)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16.5">
       <c r="A26" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D26)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.5">
       <c r="A27" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D27)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16.5">
       <c r="A28" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D28)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="16.5">
       <c r="A29" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D29)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.5">
       <c r="A30" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D30)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16.5">
       <c r="A31" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D31)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16.5">
       <c r="A32" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D32)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D33)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D34)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D35)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D36)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="16.5">
       <c r="A37" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D37)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="16.5">
       <c r="A38" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D38)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="16.5">
       <c r="A39" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D39)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="16.5">
       <c r="A40" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D40)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="16.5">
       <c r="A41" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D41)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="16.5">
       <c r="A42" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D42)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="16.5">
       <c r="A43" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D43)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="16.5">
       <c r="A44" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D44)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="16.5">
       <c r="A45" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D45)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="16.5">
       <c r="A46" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D46)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="16.5">
       <c r="A47" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D47)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="16.5">
       <c r="A48" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D48)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="16.5">
       <c r="A49" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D49)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D50)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="16.5">
       <c r="A51" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D51)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="16.5">
       <c r="A52" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D52)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="16.5">
       <c r="A53" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D53)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="16.5">
       <c r="A54" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D54)/365)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="16.5">
       <c r="A55" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D55)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="16.5">
       <c r="A56" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D56)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="16.5">
       <c r="A57" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D57)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="16.5">
       <c r="A58" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D58)/365)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="16.5">
       <c r="A59" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D59)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="16.5">
       <c r="A60" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D60)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="16.5">
       <c r="A61" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D61)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="16.5">
       <c r="A62" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D62)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="16.5">
       <c r="A63" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D63)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="16.5">
       <c r="A64" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D64)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="16.5">
       <c r="A65" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D65)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="16.5">
       <c r="A66" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D66)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="16.5">
       <c r="A67" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D67)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="16.5">
       <c r="A68" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D68)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="16.5">
       <c r="A69" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D69)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="16.5">
       <c r="A70" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D70)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="16.5">
       <c r="A71" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D71)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="16.5">
       <c r="A72" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D72)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="16.5">
       <c r="A73" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D73)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="16.5">
       <c r="A74" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D74)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="16.5">
       <c r="A75" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D75)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="16.5">
       <c r="A76" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D76)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="16.5">
       <c r="A77" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D77)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="16.5">
       <c r="A78" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D78)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="16.5">
       <c r="A79" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D79)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="16.5">
       <c r="A80" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D80)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="16.5">
       <c r="A81" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D81)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="16.5">
       <c r="A82" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D82)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="16.5">
       <c r="A83" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D83)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="16.5">
       <c r="A84" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D84)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="16.5">
       <c r="A85" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D85)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="16.5">
       <c r="A86" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D86)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="16.5">
       <c r="A87" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D87)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="16.5">
       <c r="A88" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D88)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="16.5">
       <c r="A89" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D89)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="16.5">
       <c r="A90" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D90)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="16.5">
       <c r="A91" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D91)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="16.5">
       <c r="A92" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D92)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="16.5">
       <c r="A93" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D93)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="16.5">
       <c r="A94" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D94)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="16.5">
       <c r="A95" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D95)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="16.5">
       <c r="A96" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D96)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="16.5">
       <c r="A97" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D97)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="16.5">
       <c r="A98" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D98)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="16.5">
       <c r="A99" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D99)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="16.5">
       <c r="A100" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D100)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="16.5">
       <c r="A101" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D101)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="16.5">
       <c r="A102" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D102)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="16.5">
       <c r="A103" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D103)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="16.5">
       <c r="A104" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D104)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="16.5">
       <c r="A105" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D105)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="16.5">
       <c r="A106" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D106)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="16.5">
       <c r="A107" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D107)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="16.5">
       <c r="A108" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D108)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="16.5">
       <c r="A109" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D109)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="16.5">
       <c r="A110" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D110)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="16.5">
       <c r="A111" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D111)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="16.5">
       <c r="A112" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D112)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="16.5">
       <c r="A113" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D113)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="16.5">
       <c r="A114" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D114)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="16.5">
       <c r="A115" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D115)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="16.5">
       <c r="A116" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D116)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="16.5">
       <c r="A117" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D117)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="16.5">
       <c r="A118" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D118)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="16.5">
       <c r="A119" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D119)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="16.5">
       <c r="A120" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D120)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="16.5">
       <c r="A121" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D121)/365)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="16.5">
       <c r="A122" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D122)/365)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="16.5">
       <c r="A123" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D123)/365)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="16.5">
       <c r="A124" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D124)/365)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="16.5">
       <c r="A125" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D125)/365)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="16.5">
       <c r="A126" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D126)/365)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="16.5">
       <c r="A127" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D127)/365)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="16.5">
       <c r="A128" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D128)/365)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="16.5">
       <c r="A129" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D129)/365)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="16.5">
       <c r="A130" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D130)/365)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="16.5">
       <c r="A131" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D131)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="16.5">
       <c r="A132" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D132)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="16.5">
       <c r="A133" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D133)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="16.5">
       <c r="A134" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D134)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="16.5">
       <c r="A135" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D135)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="16.5">
       <c r="A136" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D136)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="16.5">
       <c r="A137" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D137)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="16.5">
       <c r="A138" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D138)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="16.5">
       <c r="A139" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D139)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="16.5">
       <c r="A140" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D140)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="16.5">
       <c r="A141" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D141)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="16.5">
       <c r="A142" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D142)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="16.5">
       <c r="A143" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D143)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="16.5">
       <c r="A144" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D144)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="16.5">
       <c r="A145" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D145)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="16.5">
       <c r="A146" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D146)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="16.5">
       <c r="A147" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D147)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="16.5">
       <c r="A148" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D148)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="16.5">
       <c r="A149" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D149)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="16.5">
       <c r="A150" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D150)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="16.5">
       <c r="A151" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D151)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="16.5">
       <c r="A152" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D152)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="16.5">
       <c r="A153" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D153)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="16.5">
       <c r="A154" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D154)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="16.5">
       <c r="A155" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D155)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="16.5">
       <c r="A156" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D156)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="16.5">
       <c r="A157" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D157)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="16.5">
       <c r="A158" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D158)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="16.5">
       <c r="A159" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D159)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="16.5">
       <c r="A160" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D160)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="16.5">
       <c r="A161" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D161)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="16.5">
       <c r="A162" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D162)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="16.5">
       <c r="A163" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D163)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="16.5">
       <c r="A164" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D164)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="16.5">
       <c r="A165" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D165)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="16.5">
       <c r="A166" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D166)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="16.5">
       <c r="A167" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D167)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="16.5">
       <c r="A168" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D168)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="16.5">
       <c r="A169" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D169)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="16.5">
       <c r="A170" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D170)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="16.5">
       <c r="A171" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D171)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="16.5">
       <c r="A172" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D172)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="16.5">
       <c r="A173" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D173)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="16.5">
       <c r="A174" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D174)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="16.5">
       <c r="A175" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D175)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="16.5">
       <c r="A176" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D176)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="16.5">
       <c r="A177" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D177)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="16.5">
       <c r="A178" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D178)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="16.5">
       <c r="A179" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D179)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="16.5">
       <c r="A180" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D180)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="16.5">
       <c r="A181" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D181)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="16.5">
       <c r="A182" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D182)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="16.5">
       <c r="A183" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D183)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="16.5">
       <c r="A184" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D184)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="16.5">
       <c r="A185" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D185)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="16.5">
       <c r="A186" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D186)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="16.5">
       <c r="A187" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D187)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="16.5">
       <c r="A188" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D188)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="16.5">
       <c r="A189" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D189)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="16.5">
       <c r="A190" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D190)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="16.5">
       <c r="A191" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D191)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="16.5">
       <c r="A192" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D192)/365)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="16.5">
       <c r="A193" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D193)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="16.5">
       <c r="A194" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D194)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="16.5">
       <c r="A195" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D195)/365)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="16.5">
       <c r="A196" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D196)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="16.5">
       <c r="A197" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D197)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="16.5">
       <c r="A198" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D198)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="16.5">
       <c r="A199" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D199)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="16.5">
       <c r="A200" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D200)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="16.5">
       <c r="A201" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D201)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="16.5">
       <c r="A202" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D202)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="16.5">
       <c r="A203" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D203)/365)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="16.5">
       <c r="A204" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D204)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="16.5">
       <c r="A205" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D205)/365)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="16.5">
       <c r="A206" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D206)/365)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="16.5">
       <c r="A207" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D207)/365)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="16.5">
       <c r="A208" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D208)/365)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="16.5">
       <c r="A209" s="6" t="e">
         <f ca="1">INT((TODAY()-Alumnos!D209)/365)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="16.5">
       <c r="A210" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D210)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="16.5">
       <c r="A211" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D211)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="16.5">
       <c r="A212" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D212)/365)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="16.5">
       <c r="A213" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D213)/365)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="16.5">
       <c r="A214" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D214)/365)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="16.5">
       <c r="A215" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D215)/365)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="16.5">
       <c r="A216" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D216)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="16.5">
       <c r="A217" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D217)/365)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="16.5">
       <c r="A218" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D218)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="16.5">
       <c r="A219" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D219)/365)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="16.5">
       <c r="A220" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D220)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="16.5">
       <c r="A221" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D221)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="16.5">
       <c r="A222" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D222)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="16.5">
       <c r="A223" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D223)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="16.5">
       <c r="A224" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D224)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="16.5">
       <c r="A225" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D225)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="16.5">
       <c r="A226" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D226)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="16.5">
       <c r="A227" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D227)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="16.5">
       <c r="A228" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D228)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="16.5">
       <c r="A229" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D229)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="16.5">
       <c r="A230" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D230)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="16.5">
       <c r="A231" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D231)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="16.5">
       <c r="A232" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D232)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="16.5">
       <c r="A233" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D233)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="16.5">
       <c r="A234" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D234)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="16.5">
       <c r="A235" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D235)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="16.5">
       <c r="A236" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D236)/365)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="16.5">
       <c r="A237" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D237)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="16.5">
       <c r="A238" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D238)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="16.5">
       <c r="A239" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D239)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="16.5">
       <c r="A240" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D240)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="16.5">
       <c r="A241" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D241)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="16.5">
       <c r="A242" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D242)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="16.5">
       <c r="A243" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D243)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D244)/365)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="16.5">
       <c r="A245" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D245)/365)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D246)/365)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="16.5">
       <c r="A247" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D247)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="16.5">
       <c r="A248" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D248)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="16.5">
       <c r="A249" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D249)/365)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="16.5">
       <c r="A250" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D250)/365)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="16.5">
       <c r="A251" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D251)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="16.5">
       <c r="A252" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D252)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="16.5">
       <c r="A253" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D253)/365)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="16.5">
       <c r="A254" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D254)/365)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="16.5">
       <c r="A255" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D255)/365)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="16.5">
       <c r="A256" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D256)/365)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="16.5">
       <c r="A257" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D257)/365)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="16.5">
       <c r="A258" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D258)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="16.5">
       <c r="A259" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D259)/365)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="16.5">
       <c r="A260" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D260)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="16.5">
       <c r="A261" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D261)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="16.5">
       <c r="A262" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D262)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="16.5">
       <c r="A263" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D263)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="16.5">
       <c r="A264" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D264)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="16.5">
       <c r="A265" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D265)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" ht="16.5">
       <c r="A266" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D266)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="16.5">
       <c r="A267" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D267)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="16.5">
       <c r="A268" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D268)/365)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="16.5">
       <c r="A269" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D269)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="16.5">
       <c r="A270" s="6">
         <f ca="1">INT((TODAY()-Alumnos!D270)/365)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="16.5">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="16.5">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="16.5">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="16.5">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="16.5">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="16.5">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="16.5">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="16.5">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="16.5">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="16.5">
       <c r="A280" s="6"/>
     </row>
-    <row r="281" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="16.5">
       <c r="A281" s="6"/>
     </row>
-    <row r="282" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" ht="16.5">
       <c r="A282" s="6"/>
     </row>
-    <row r="283" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" ht="16.5">
       <c r="A283" s="6"/>
     </row>
-    <row r="284" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="16.5">
       <c r="A284" s="6"/>
     </row>
-    <row r="285" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="16.5">
       <c r="A285" s="6"/>
     </row>
-    <row r="286" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="16.5">
       <c r="A286" s="6"/>
     </row>
-    <row r="287" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="16.5">
       <c r="A287" s="6"/>
     </row>
-    <row r="288" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="16.5">
       <c r="A288" s="6"/>
     </row>
-    <row r="289" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="16.5">
       <c r="A289" s="6"/>
     </row>
-    <row r="290" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="16.5">
       <c r="A290" s="6"/>
     </row>
-    <row r="291" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" ht="16.5">
       <c r="A291" s="6"/>
     </row>
-    <row r="292" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="16.5">
       <c r="A292" s="6"/>
     </row>
-    <row r="293" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="16.5">
       <c r="A293" s="6"/>
     </row>
-    <row r="294" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="16.5">
       <c r="A294" s="6"/>
     </row>
-    <row r="295" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="16.5">
       <c r="A295" s="6"/>
     </row>
-    <row r="296" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="16.5">
       <c r="A296" s="6"/>
     </row>
-    <row r="297" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="16.5">
       <c r="A297" s="6"/>
     </row>
-    <row r="298" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" ht="16.5">
       <c r="A298" s="6"/>
     </row>
-    <row r="299" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" ht="16.5">
       <c r="A299" s="6"/>
     </row>
-    <row r="300" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="16.5">
       <c r="A300" s="6"/>
     </row>
-    <row r="301" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="16.5">
       <c r="A301" s="6"/>
     </row>
-    <row r="302" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="16.5">
       <c r="A302" s="6"/>
     </row>
-    <row r="303" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="16.5">
       <c r="A303" s="6"/>
     </row>
-    <row r="304" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="16.5">
       <c r="A304" s="6"/>
     </row>
-    <row r="305" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="16.5">
       <c r="A305" s="6"/>
     </row>
-    <row r="306" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="16.5">
       <c r="A306" s="6"/>
     </row>
-    <row r="307" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" ht="16.5">
       <c r="A307" s="6"/>
     </row>
-    <row r="308" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="16.5">
       <c r="A308" s="6"/>
     </row>
-    <row r="309" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="16.5">
       <c r="A309" s="6"/>
     </row>
-    <row r="310" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="16.5">
       <c r="A310" s="6"/>
     </row>
-    <row r="311" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="16.5">
       <c r="A311" s="6"/>
     </row>
-    <row r="312" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="16.5">
       <c r="A312" s="6"/>
     </row>
-    <row r="313" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="16.5">
       <c r="A313" s="6"/>
     </row>
-    <row r="314" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" ht="16.5">
       <c r="A314" s="6"/>
     </row>
-    <row r="315" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" ht="16.5">
       <c r="A315" s="6"/>
     </row>
-    <row r="316" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" ht="16.5">
       <c r="A316" s="6"/>
     </row>
-    <row r="317" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" ht="16.5">
       <c r="A317" s="6"/>
     </row>
-    <row r="318" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" ht="16.5">
       <c r="A318" s="6"/>
     </row>
-    <row r="319" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" ht="16.5">
       <c r="A319" s="6"/>
     </row>
-    <row r="320" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="16.5">
       <c r="A320" s="6"/>
     </row>
-    <row r="321" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" ht="16.5">
       <c r="A321" s="6"/>
     </row>
-    <row r="322" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" ht="16.5">
       <c r="A322" s="6"/>
     </row>
-    <row r="323" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" ht="16.5">
       <c r="A323" s="6"/>
     </row>
-    <row r="324" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" ht="16.5">
       <c r="A324" s="6"/>
     </row>
-    <row r="325" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" ht="16.5">
       <c r="A325" s="6"/>
     </row>
-    <row r="326" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" ht="16.5">
       <c r="A326" s="6"/>
     </row>
-    <row r="327" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" ht="16.5">
       <c r="A327" s="6"/>
     </row>
-    <row r="328" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" ht="16.5">
       <c r="A328" s="6"/>
     </row>
-    <row r="329" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" ht="16.5">
       <c r="A329" s="6"/>
     </row>
-    <row r="330" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" ht="16.5">
       <c r="A330" s="6"/>
     </row>
-    <row r="331" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" ht="16.5">
       <c r="A331" s="6"/>
     </row>
-    <row r="332" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" ht="16.5">
       <c r="A332" s="6"/>
     </row>
-    <row r="333" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" ht="16.5">
       <c r="A333" s="6"/>
     </row>
-    <row r="334" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" ht="16.5">
       <c r="A334" s="6"/>
     </row>
-    <row r="335" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" ht="16.5">
       <c r="A335" s="6"/>
     </row>
-    <row r="336" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" ht="16.5">
       <c r="A336" s="6"/>
     </row>
-    <row r="337" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" ht="16.5">
       <c r="A337" s="6"/>
     </row>
-    <row r="338" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" ht="16.5">
       <c r="A338" s="6"/>
     </row>
-    <row r="339" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" ht="16.5">
       <c r="A339" s="6"/>
     </row>
-    <row r="340" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" ht="16.5">
       <c r="A340" s="6"/>
     </row>
-    <row r="341" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" ht="16.5">
       <c r="A341" s="6"/>
     </row>
-    <row r="342" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" ht="16.5">
       <c r="A342" s="6"/>
     </row>
-    <row r="343" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" ht="16.5">
       <c r="A343" s="6"/>
     </row>
-    <row r="344" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" ht="16.5">
       <c r="A344" s="6"/>
     </row>
-    <row r="345" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" ht="16.5">
       <c r="A345" s="6"/>
     </row>
-    <row r="346" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" ht="16.5">
       <c r="A346" s="6"/>
     </row>
-    <row r="347" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" ht="16.5">
       <c r="A347" s="6"/>
     </row>
-    <row r="348" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" ht="16.5">
       <c r="A348" s="6"/>
     </row>
-    <row r="349" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" ht="16.5">
       <c r="A349" s="6"/>
     </row>
-    <row r="350" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" ht="16.5">
       <c r="A350" s="6"/>
     </row>
-    <row r="351" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" ht="16.5">
       <c r="A351" s="6"/>
     </row>
-    <row r="352" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" ht="16.5">
       <c r="A352" s="6"/>
     </row>
-    <row r="353" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" ht="16.5">
       <c r="A353" s="6"/>
     </row>
-    <row r="354" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" ht="16.5">
       <c r="A354" s="6"/>
     </row>
-    <row r="355" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" ht="16.5">
       <c r="A355" s="6"/>
     </row>
-    <row r="356" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" ht="16.5">
       <c r="A356" s="6"/>
     </row>
-    <row r="357" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" ht="16.5">
       <c r="A357" s="6"/>
     </row>
-    <row r="358" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" ht="16.5">
       <c r="A358" s="6"/>
     </row>
-    <row r="359" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" ht="16.5">
       <c r="A359" s="6"/>
     </row>
-    <row r="360" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" ht="16.5">
       <c r="A360" s="6"/>
     </row>
-    <row r="361" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" ht="16.5">
       <c r="A361" s="6"/>
     </row>
-    <row r="362" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" ht="16.5">
       <c r="A362" s="6"/>
     </row>
-    <row r="363" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" ht="16.5">
       <c r="A363" s="6"/>
     </row>
-    <row r="364" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" ht="16.5">
       <c r="A364" s="6"/>
     </row>
-    <row r="365" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" ht="16.5">
       <c r="A365" s="6"/>
     </row>
-    <row r="366" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" ht="16.5">
       <c r="A366" s="6"/>
     </row>
-    <row r="367" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" ht="16.5">
       <c r="A367" s="6"/>
     </row>
-    <row r="368" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" ht="16.5">
       <c r="A368" s="6"/>
     </row>
-    <row r="369" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" ht="16.5">
       <c r="A369" s="6"/>
     </row>
-    <row r="370" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" ht="16.5">
       <c r="A370" s="6"/>
     </row>
-    <row r="371" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="16.5">
       <c r="A371" s="6"/>
     </row>
   </sheetData>
@@ -13692,68 +14022,376 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6E7CE-9BD7-40F2-92F8-867A16EE4EFD}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25">
+      <c r="A2" s="53" t="str">
+        <f>MID(C10,6,2)</f>
+        <v>01</v>
+      </c>
+      <c r="C2" s="75" t="s">
         <v>859</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="str">
+        <f>IF(A2="01","A","")</f>
+        <v>A</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>860</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="77"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="str">
+        <f>IF(A2="02","B","")</f>
+        <v/>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="56" t="s">
         <v>861</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="str">
+        <f>IF(A2="03","C","")</f>
+        <v/>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>862</v>
       </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55" t="s">
+        <v>865</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="73">
+        <f ca="1">TODAY()</f>
+        <v>45568</v>
+      </c>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="str">
+        <f>IF(A2="04","D","")</f>
+        <v/>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>863</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="61"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="str">
+        <f>IF(A2="05","E","")</f>
+        <v/>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>864</v>
+      </c>
+      <c r="D7" s="70" t="str">
+        <f>_xlfn.CONCAT(A3,A4,A5,A6,A7,A8,A9,A10,A11,A12)</f>
+        <v>A</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="str">
+        <f>IF(A2="06","F","")</f>
+        <v/>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="str">
+        <f>IF(A2="07","G","")</f>
+        <v/>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="52" t="str">
+        <f>IF(A2="08","H","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="71">
+        <f>INDEX(Alumnos!A:A,A1)</f>
+        <v>24117010001</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72" t="str">
+        <f>INDEX(Alumnos!B:B,A1)</f>
+        <v>Juan Carlos</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72" t="str">
+        <f>INDEX(Alumnos!C:C,A1)</f>
+        <v>Orozco Chacon</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="str">
+        <f>IF(A2="09","I","")</f>
+        <v/>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="61"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="str">
+        <f>IF(A2="10","J","")</f>
+        <v/>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56" t="s">
+        <v>871</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="str">
+        <f>IF(A2="11","K","")</f>
+        <v/>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54" t="s">
+        <v>872</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="61"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="str">
+        <f>IF(A2="12","L","")</f>
+        <v/>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="69" t="s">
+        <v>873</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69" t="s">
+        <v>874</v>
+      </c>
+      <c r="I14" s="67"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="61"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>869</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="I16" s="61"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>870</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>875</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54" t="s">
+        <v>879</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="I17" s="61"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>881</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="61"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="C19" s="65" t="s">
+        <v>876</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="C20" s="66" t="s">
+        <v>877</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
+  <mergeCells count="14">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId3" name="List Box 1">
+            <control shapeId="3074" r:id="rId4" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3082" r:id="rId5" name="Drop Down 10">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>14</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
